--- a/Model/Resources/Структура таблиц.xlsx
+++ b/Model/Resources/Структура таблиц.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IEK\Iek2024\Bs.Nano.Electric\Model\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8243B66C-5F61-486C-9451-00E43CF03B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2275644D-5D11-43F8-BBEE-B067D2E1BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1290" windowWidth="27585" windowHeight="18015" xr2:uid="{7F60D920-0CA4-48B4-9049-42AC167852D5}"/>
+    <workbookView xWindow="1335" yWindow="375" windowWidth="34470" windowHeight="19110" xr2:uid="{7F60D920-0CA4-48B4-9049-42AC167852D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ElBoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="136">
   <si>
     <t>CREATE TABLE [ElBoard] (</t>
   </si>
@@ -396,9 +395,6 @@
   </si>
   <si>
     <t>22_0</t>
-  </si>
-  <si>
-    <t>_0</t>
   </si>
   <si>
     <t>23_0</t>
@@ -450,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,8 +455,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,9 +495,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -803,31 +813,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2490438F-9C13-46D6-BD2B-95498BFBF93E}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="D1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
+    <row r="1" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>71</v>
       </c>
@@ -838,16 +845,22 @@
         <v>120</v>
       </c>
       <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -863,18 +876,11 @@
       <c r="J2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="b">
-        <f>B3=E3</f>
-        <v>1</v>
-      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>50</v>
       </c>
@@ -882,7 +888,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="b">
-        <f>B3=H3</f>
+        <f>M3=H3</f>
         <v>1</v>
       </c>
       <c r="G3" t="s">
@@ -892,7 +898,7 @@
         <v>72</v>
       </c>
       <c r="I3" t="b">
-        <f>B3=K3</f>
+        <f>M3=K3</f>
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -901,18 +907,18 @@
       <c r="K3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="b">
-        <f t="shared" ref="C4:C49" si="0">B4=E4</f>
-        <v>1</v>
-      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="b">
+        <f>M3=E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -920,7 +926,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="b">
-        <f t="shared" ref="F4:F49" si="1">B4=H4</f>
+        <f>M4=H4</f>
         <v>1</v>
       </c>
       <c r="G4" t="s">
@@ -930,27 +936,27 @@
         <v>73</v>
       </c>
       <c r="I4" t="b">
-        <f t="shared" ref="I4:I49" si="2">B4=K4</f>
+        <f>M4=K4</f>
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="b">
+        <f>M4=E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -958,7 +964,7 @@
         <v>74</v>
       </c>
       <c r="F5" t="b">
-        <f t="shared" si="1"/>
+        <f>M5=H5</f>
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -968,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="I5" t="b">
-        <f t="shared" si="2"/>
+        <f>M5=K5</f>
         <v>1</v>
       </c>
       <c r="J5" t="s">
@@ -977,18 +983,18 @@
       <c r="K5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="b">
+        <f>M5=E5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="b">
-        <f t="shared" si="1"/>
+        <f>M6=H6</f>
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -1006,7 +1012,7 @@
         <v>75</v>
       </c>
       <c r="I6" t="b">
-        <f t="shared" si="2"/>
+        <f>M6=K6</f>
         <v>1</v>
       </c>
       <c r="J6" t="s">
@@ -1015,18 +1021,18 @@
       <c r="K6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="b">
+        <f>M6=E6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="b">
-        <f t="shared" si="1"/>
+        <f>M7=H7</f>
         <v>1</v>
       </c>
       <c r="G7" t="s">
@@ -1044,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="I7" t="b">
-        <f t="shared" si="2"/>
+        <f>M7=K7</f>
         <v>1</v>
       </c>
       <c r="J7" t="s">
@@ -1053,41 +1059,41 @@
       <c r="K7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="b">
+        <f>M7=E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="b">
-        <f t="shared" si="1"/>
+        <f>M8=H8</f>
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <f t="shared" si="2"/>
+        <f>M8=K8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="b">
+        <f>M8=E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>78</v>
       </c>
       <c r="F9" t="b">
-        <f t="shared" si="1"/>
+        <f>M9=H9</f>
         <v>1</v>
       </c>
       <c r="G9" t="s">
@@ -1105,7 +1111,7 @@
         <v>78</v>
       </c>
       <c r="I9" t="b">
-        <f t="shared" si="2"/>
+        <f>M9=K9</f>
         <v>1</v>
       </c>
       <c r="J9" t="s">
@@ -1114,18 +1120,18 @@
       <c r="K9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" t="b">
+        <f>M9=E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="b">
-        <f t="shared" si="1"/>
+        <f>M10=H10</f>
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -1143,7 +1149,7 @@
         <v>79</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" si="2"/>
+        <f>M10=K10</f>
         <v>1</v>
       </c>
       <c r="J10" t="s">
@@ -1152,18 +1158,18 @@
       <c r="K10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="b">
+        <f>M10=E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>80</v>
       </c>
       <c r="F11" t="b">
-        <f t="shared" si="1"/>
+        <f>M11=H11</f>
         <v>1</v>
       </c>
       <c r="G11" t="s">
@@ -1181,7 +1187,7 @@
         <v>80</v>
       </c>
       <c r="I11" t="b">
-        <f t="shared" si="2"/>
+        <f>M11=K11</f>
         <v>1</v>
       </c>
       <c r="J11" t="s">
@@ -1190,18 +1196,18 @@
       <c r="K11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="b">
+        <f>M11=E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>51</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>81</v>
       </c>
       <c r="F12" t="b">
-        <f t="shared" si="1"/>
+        <f>M12=H12</f>
         <v>1</v>
       </c>
       <c r="G12" t="s">
@@ -1219,27 +1225,27 @@
         <v>81</v>
       </c>
       <c r="I12" t="b">
-        <f t="shared" si="2"/>
+        <f>M12=K12</f>
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" t="b">
+        <f>M12=E12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>52</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>82</v>
       </c>
       <c r="F13" t="b">
-        <f t="shared" si="1"/>
+        <f>M13=H13</f>
         <v>1</v>
       </c>
       <c r="G13" t="s">
@@ -1257,27 +1263,27 @@
         <v>82</v>
       </c>
       <c r="I13" t="b">
-        <f t="shared" si="2"/>
+        <f>M13=K13</f>
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" t="b">
+        <f>M13=E13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>53</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>83</v>
       </c>
       <c r="F14" t="b">
-        <f t="shared" si="1"/>
+        <f>M14=H14</f>
         <v>1</v>
       </c>
       <c r="G14" t="s">
@@ -1295,32 +1301,32 @@
         <v>83</v>
       </c>
       <c r="I14" t="b">
-        <f t="shared" si="2"/>
+        <f>M14=K14</f>
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" t="b">
+        <f>M14=E14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="b">
-        <f t="shared" si="1"/>
+        <f>M15=H15</f>
         <v>1</v>
       </c>
       <c r="G15" t="s">
@@ -1330,21 +1336,21 @@
         <v>84</v>
       </c>
       <c r="I15" t="b">
-        <f t="shared" si="2"/>
+        <f>M15=K15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="b">
+        <f>M15=E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="F16" t="b">
-        <f t="shared" si="1"/>
+        <f>M16=H16</f>
         <v>1</v>
       </c>
       <c r="G16" t="s">
@@ -1362,7 +1368,7 @@
         <v>85</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" si="2"/>
+        <f>M16=K16</f>
         <v>1</v>
       </c>
       <c r="J16" t="s">
@@ -1371,18 +1377,18 @@
       <c r="K16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="b">
+        <f>M16=E16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>55</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="F17" t="b">
-        <f t="shared" si="1"/>
+        <f>M17=H17</f>
         <v>1</v>
       </c>
       <c r="G17" t="s">
@@ -1400,7 +1406,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="2"/>
+        <f>M17=K17</f>
         <v>1</v>
       </c>
       <c r="J17" t="s">
@@ -1409,18 +1415,18 @@
       <c r="K17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="b">
+        <f>M17=E17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>87</v>
       </c>
       <c r="F18" t="b">
-        <f t="shared" si="1"/>
+        <f>M18=H18</f>
         <v>1</v>
       </c>
       <c r="G18" t="s">
@@ -1438,7 +1444,7 @@
         <v>87</v>
       </c>
       <c r="I18" t="b">
-        <f t="shared" si="2"/>
+        <f>M18=K18</f>
         <v>1</v>
       </c>
       <c r="J18" t="s">
@@ -1447,18 +1453,18 @@
       <c r="K18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" t="b">
+        <f>M18=E18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="b">
-        <f t="shared" si="1"/>
+        <f>M19=H19</f>
         <v>1</v>
       </c>
       <c r="G19" t="s">
@@ -1476,7 +1482,7 @@
         <v>88</v>
       </c>
       <c r="I19" t="b">
-        <f t="shared" si="2"/>
+        <f>M19=K19</f>
         <v>1</v>
       </c>
       <c r="J19" t="s">
@@ -1485,18 +1491,18 @@
       <c r="K19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" t="b">
+        <f>M19=E19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>56</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>89</v>
       </c>
       <c r="F20" t="b">
-        <f t="shared" si="1"/>
+        <f>M20=H20</f>
         <v>1</v>
       </c>
       <c r="G20" t="s">
@@ -1514,27 +1520,27 @@
         <v>89</v>
       </c>
       <c r="I20" t="b">
-        <f t="shared" si="2"/>
+        <f>M20=K20</f>
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" t="b">
+        <f>M20=E20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>90</v>
       </c>
       <c r="F21" t="b">
-        <f t="shared" si="1"/>
+        <f>M21=H21</f>
         <v>1</v>
       </c>
       <c r="G21" t="s">
@@ -1552,27 +1558,27 @@
         <v>90</v>
       </c>
       <c r="I21" t="b">
-        <f t="shared" si="2"/>
+        <f>M21=K21</f>
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" t="b">
+        <f>M21=E21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>57</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="F22" t="b">
-        <f t="shared" si="1"/>
+        <f>M22=H22</f>
         <v>1</v>
       </c>
       <c r="G22" t="s">
@@ -1590,27 +1596,27 @@
         <v>91</v>
       </c>
       <c r="I22" t="b">
-        <f t="shared" si="2"/>
+        <f>M22=K22</f>
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" t="b">
+        <f>M22=E22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>58</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>92</v>
       </c>
       <c r="F23" t="b">
-        <f t="shared" si="1"/>
+        <f>M23=H23</f>
         <v>1</v>
       </c>
       <c r="G23" t="s">
@@ -1628,7 +1634,7 @@
         <v>92</v>
       </c>
       <c r="I23" t="b">
-        <f t="shared" si="2"/>
+        <f>M23=K23</f>
         <v>1</v>
       </c>
       <c r="J23" t="s">
@@ -1637,18 +1643,18 @@
       <c r="K23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" t="b">
+        <f>M23=E23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>93</v>
       </c>
       <c r="F24" t="b">
-        <f t="shared" si="1"/>
+        <f>M24=H24</f>
         <v>1</v>
       </c>
       <c r="G24" t="s">
@@ -1666,27 +1672,27 @@
         <v>93</v>
       </c>
       <c r="I24" t="b">
-        <f t="shared" si="2"/>
+        <f>M24=K24</f>
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" t="b">
+        <f>M24=E24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>60</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>94</v>
       </c>
       <c r="F25" t="b">
-        <f t="shared" si="1"/>
+        <f>M25=H25</f>
         <v>1</v>
       </c>
       <c r="G25" t="s">
@@ -1704,7 +1710,7 @@
         <v>94</v>
       </c>
       <c r="I25" t="b">
-        <f t="shared" si="2"/>
+        <f>M25=K25</f>
         <v>1</v>
       </c>
       <c r="J25" t="s">
@@ -1713,18 +1719,18 @@
       <c r="K25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" t="b">
+        <f>M25=E25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>61</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>95</v>
       </c>
       <c r="F26" t="b">
-        <f t="shared" si="1"/>
+        <f>M26=H26</f>
         <v>1</v>
       </c>
       <c r="G26" t="s">
@@ -1742,7 +1748,7 @@
         <v>95</v>
       </c>
       <c r="I26" t="b">
-        <f t="shared" si="2"/>
+        <f>M26=K26</f>
         <v>1</v>
       </c>
       <c r="J26" t="s">
@@ -1751,18 +1757,18 @@
       <c r="K26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" t="b">
+        <f>M26=E26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>62</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>96</v>
       </c>
       <c r="F27" t="b">
-        <f t="shared" si="1"/>
+        <f>M27=H27</f>
         <v>1</v>
       </c>
       <c r="G27" t="s">
@@ -1780,7 +1786,7 @@
         <v>96</v>
       </c>
       <c r="I27" t="b">
-        <f t="shared" si="2"/>
+        <f>M27=K27</f>
         <v>1</v>
       </c>
       <c r="J27" t="s">
@@ -1789,18 +1795,18 @@
       <c r="K27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" t="b">
+        <f>M27=E27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>63</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>97</v>
       </c>
       <c r="F28" t="b">
-        <f t="shared" si="1"/>
+        <f>M28=H28</f>
         <v>1</v>
       </c>
       <c r="G28" t="s">
@@ -1818,7 +1824,7 @@
         <v>97</v>
       </c>
       <c r="I28" t="b">
-        <f t="shared" si="2"/>
+        <f>M28=K28</f>
         <v>1</v>
       </c>
       <c r="J28" t="s">
@@ -1827,18 +1833,18 @@
       <c r="K28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" t="b">
+        <f>M28=E28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>64</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>98</v>
       </c>
       <c r="F29" t="b">
-        <f t="shared" si="1"/>
+        <f>M29=H29</f>
         <v>1</v>
       </c>
       <c r="G29" t="s">
@@ -1856,7 +1862,7 @@
         <v>98</v>
       </c>
       <c r="I29" t="b">
-        <f t="shared" si="2"/>
+        <f>M29=K29</f>
         <v>1</v>
       </c>
       <c r="J29" t="s">
@@ -1865,18 +1871,18 @@
       <c r="K29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" t="b">
+        <f>M29=E29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>65</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>99</v>
       </c>
       <c r="F30" t="b">
-        <f t="shared" si="1"/>
+        <f>M30=H30</f>
         <v>1</v>
       </c>
       <c r="G30" t="s">
@@ -1894,7 +1900,7 @@
         <v>99</v>
       </c>
       <c r="I30" t="b">
-        <f t="shared" si="2"/>
+        <f>M30=K30</f>
         <v>1</v>
       </c>
       <c r="J30" t="s">
@@ -1903,15 +1909,18 @@
       <c r="K30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" t="b">
+        <f>M30=E30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>28</v>
       </c>
@@ -1919,31 +1928,29 @@
         <v>119</v>
       </c>
       <c r="F31" t="b">
-        <f t="shared" si="1"/>
+        <f>M31=H31</f>
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <f t="shared" si="2"/>
+        <f>M31=K31</f>
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="b">
+        <f>M31=E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="b">
-        <f t="shared" si="1"/>
+        <f>M32=H32</f>
         <v>1</v>
       </c>
       <c r="G32" t="s">
@@ -1961,7 +1968,7 @@
         <v>100</v>
       </c>
       <c r="I32" t="b">
-        <f t="shared" si="2"/>
+        <f>M32=K32</f>
         <v>1</v>
       </c>
       <c r="J32" t="s">
@@ -1970,18 +1977,18 @@
       <c r="K32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" t="b">
+        <f>M32=E32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>101</v>
       </c>
       <c r="F33" t="b">
-        <f t="shared" si="1"/>
+        <f>M33=H33</f>
         <v>1</v>
       </c>
       <c r="G33" t="s">
@@ -1999,7 +2006,7 @@
         <v>101</v>
       </c>
       <c r="I33" t="b">
-        <f t="shared" si="2"/>
+        <f>M33=K33</f>
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -2008,18 +2015,18 @@
       <c r="K33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" t="b">
+        <f>M33=E33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>102</v>
       </c>
       <c r="F34" t="b">
-        <f t="shared" si="1"/>
+        <f>M34=H34</f>
         <v>1</v>
       </c>
       <c r="G34" t="s">
@@ -2037,27 +2044,27 @@
         <v>102</v>
       </c>
       <c r="I34" t="b">
-        <f t="shared" si="2"/>
+        <f>M34=K34</f>
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" t="b">
+        <f>M34=E34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>66</v>
       </c>
@@ -2065,7 +2072,7 @@
         <v>103</v>
       </c>
       <c r="F35" t="b">
-        <f t="shared" si="1"/>
+        <f>M35=H35</f>
         <v>1</v>
       </c>
       <c r="G35" t="s">
@@ -2075,7 +2082,7 @@
         <v>103</v>
       </c>
       <c r="I35" t="b">
-        <f t="shared" si="2"/>
+        <f>M35=K35</f>
         <v>1</v>
       </c>
       <c r="J35" t="s">
@@ -2084,18 +2091,18 @@
       <c r="K35" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N35" t="b">
+        <f>M35=E35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>67</v>
       </c>
@@ -2103,7 +2110,7 @@
         <v>104</v>
       </c>
       <c r="F36" t="b">
-        <f t="shared" si="1"/>
+        <f>M36=H36</f>
         <v>1</v>
       </c>
       <c r="G36" t="s">
@@ -2113,7 +2120,7 @@
         <v>104</v>
       </c>
       <c r="I36" t="b">
-        <f t="shared" si="2"/>
+        <f>M36=K36</f>
         <v>1</v>
       </c>
       <c r="J36" t="s">
@@ -2122,18 +2129,18 @@
       <c r="K36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36" t="b">
+        <f>M36=E36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>105</v>
       </c>
       <c r="F37" t="b">
-        <f t="shared" si="1"/>
+        <f>M37=H37</f>
         <v>1</v>
       </c>
       <c r="G37" t="s">
@@ -2151,27 +2158,27 @@
         <v>105</v>
       </c>
       <c r="I37" t="b">
-        <f t="shared" si="2"/>
+        <f>M37=K37</f>
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K37" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37" t="b">
+        <f>M37=E37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>106</v>
       </c>
       <c r="F38" t="b">
-        <f t="shared" si="1"/>
+        <f>M38=H38</f>
         <v>1</v>
       </c>
       <c r="G38" t="s">
@@ -2189,7 +2196,7 @@
         <v>106</v>
       </c>
       <c r="I38" t="b">
-        <f t="shared" si="2"/>
+        <f>M38=K38</f>
         <v>1</v>
       </c>
       <c r="J38" t="s">
@@ -2198,18 +2205,18 @@
       <c r="K38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" t="b">
+        <f>M38=E38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>69</v>
       </c>
@@ -2217,7 +2224,7 @@
         <v>107</v>
       </c>
       <c r="F39" t="b">
-        <f t="shared" si="1"/>
+        <f>M39=H39</f>
         <v>1</v>
       </c>
       <c r="G39" t="s">
@@ -2227,7 +2234,7 @@
         <v>107</v>
       </c>
       <c r="I39" t="b">
-        <f t="shared" si="2"/>
+        <f>M39=K39</f>
         <v>1</v>
       </c>
       <c r="J39" t="s">
@@ -2236,18 +2243,18 @@
       <c r="K39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" t="b">
+        <f>M39=E39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2262,7 @@
         <v>108</v>
       </c>
       <c r="F40" t="b">
-        <f t="shared" si="1"/>
+        <f>M40=H40</f>
         <v>1</v>
       </c>
       <c r="G40" t="s">
@@ -2265,27 +2272,27 @@
         <v>108</v>
       </c>
       <c r="I40" t="b">
-        <f t="shared" si="2"/>
+        <f>M40=K40</f>
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" t="b">
+        <f>M40=E40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>109</v>
       </c>
       <c r="F41" t="b">
-        <f t="shared" si="1"/>
+        <f>M41=H41</f>
         <v>1</v>
       </c>
       <c r="G41" t="s">
@@ -2303,7 +2310,7 @@
         <v>109</v>
       </c>
       <c r="I41" t="b">
-        <f t="shared" si="2"/>
+        <f>M41=K41</f>
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -2312,41 +2319,41 @@
       <c r="K41" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" t="b">
+        <f>M41=E41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="F42" t="b">
-        <f t="shared" si="1"/>
+        <f>M42=H42</f>
         <v>0</v>
       </c>
       <c r="I42" t="b">
-        <f t="shared" si="2"/>
+        <f>M42=K42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N42" t="b">
+        <f>M42=E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>40</v>
       </c>
@@ -2354,7 +2361,7 @@
         <v>111</v>
       </c>
       <c r="F43" t="b">
-        <f t="shared" si="1"/>
+        <f>M43=H43</f>
         <v>1</v>
       </c>
       <c r="G43" t="s">
@@ -2364,7 +2371,7 @@
         <v>111</v>
       </c>
       <c r="I43" t="b">
-        <f t="shared" si="2"/>
+        <f>M43=K43</f>
         <v>1</v>
       </c>
       <c r="J43" t="s">
@@ -2373,18 +2380,18 @@
       <c r="K43" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" t="b">
+        <f>M43=E43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>41</v>
       </c>
@@ -2392,7 +2399,7 @@
         <v>112</v>
       </c>
       <c r="F44" t="b">
-        <f t="shared" si="1"/>
+        <f>M44=H44</f>
         <v>1</v>
       </c>
       <c r="G44" t="s">
@@ -2402,7 +2409,7 @@
         <v>112</v>
       </c>
       <c r="I44" t="b">
-        <f t="shared" si="2"/>
+        <f>M44=K44</f>
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -2411,18 +2418,18 @@
       <c r="K44" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="b">
-        <f>B45=E45</f>
-        <v>1</v>
-      </c>
+      <c r="L44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" t="b">
+        <f>M44=E44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>42</v>
       </c>
@@ -2430,7 +2437,7 @@
         <v>113</v>
       </c>
       <c r="F45" t="b">
-        <f t="shared" si="1"/>
+        <f>M45=H45</f>
         <v>1</v>
       </c>
       <c r="G45" t="s">
@@ -2440,7 +2447,7 @@
         <v>113</v>
       </c>
       <c r="I45" t="b">
-        <f t="shared" si="2"/>
+        <f>M45=K45</f>
         <v>1</v>
       </c>
       <c r="J45" t="s">
@@ -2449,18 +2456,18 @@
       <c r="K45" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N45" t="b">
+        <f>M45=E45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>43</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>114</v>
       </c>
       <c r="F46" t="b">
-        <f t="shared" si="1"/>
+        <f>M46=H46</f>
         <v>1</v>
       </c>
       <c r="G46" t="s">
@@ -2478,32 +2485,32 @@
         <v>114</v>
       </c>
       <c r="I46" t="b">
-        <f t="shared" si="2"/>
+        <f>M46=K46</f>
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K46" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" t="s">
+        <v>114</v>
+      </c>
+      <c r="N46" t="b">
+        <f>M46=E46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>115</v>
       </c>
       <c r="F47" t="b">
-        <f t="shared" si="1"/>
+        <f>M47=H47</f>
         <v>1</v>
       </c>
       <c r="G47" t="s">
@@ -2513,32 +2520,32 @@
         <v>115</v>
       </c>
       <c r="I47" t="b">
-        <f t="shared" si="2"/>
+        <f>M47=K47</f>
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" t="s">
+        <v>115</v>
+      </c>
+      <c r="N47" t="b">
+        <f>M47=E47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>116</v>
       </c>
       <c r="F48" t="b">
-        <f t="shared" si="1"/>
+        <f>M48=H48</f>
         <v>1</v>
       </c>
       <c r="G48" t="s">
@@ -2548,7 +2555,7 @@
         <v>116</v>
       </c>
       <c r="I48" t="b">
-        <f t="shared" si="2"/>
+        <f>M48=K48</f>
         <v>1</v>
       </c>
       <c r="J48" t="s">
@@ -2557,23 +2564,23 @@
       <c r="K48" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" t="b">
+        <f>M48=E48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>117</v>
       </c>
       <c r="F49" t="b">
-        <f t="shared" si="1"/>
+        <f>M49=H49</f>
         <v>1</v>
       </c>
       <c r="G49" t="s">
@@ -2583,7 +2590,7 @@
         <v>117</v>
       </c>
       <c r="I49" t="b">
-        <f t="shared" si="2"/>
+        <f>M49=K49</f>
         <v>1</v>
       </c>
       <c r="J49" t="s">
@@ -2592,11 +2599,18 @@
       <c r="K49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
+      <c r="L49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" t="b">
+        <f>M49=E49</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>48</v>
       </c>
@@ -2604,6 +2618,9 @@
         <v>48</v>
       </c>
       <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2611,6 +2628,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:K46">
     <sortCondition ref="K3:K46"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>